--- a/dataset/models/input/Common Environment.xlsx
+++ b/dataset/models/input/Common Environment.xlsx
@@ -141,7 +141,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -255,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="53">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -266,8 +266,8 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,25 +339,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -384,22 +375,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -739,19 +721,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="25" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="58" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="25" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="50" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="52" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="50" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="57">
+      <c r="B1" s="51">
         <v>0.5</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
         <v>18</v>
       </c>
     </row>
@@ -759,10 +741,10 @@
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="51">
         <v>0.5</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="42" t="s">
         <v>18</v>
       </c>
     </row>
@@ -782,9 +764,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="56" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="50" width="17.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="26" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="56" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="50" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="27" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="26" width="21.862142857142857" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="26" width="19.862142857142857" customWidth="1" bestFit="1"/>
@@ -1808,10 +1790,10 @@
     <col min="1024" max="1024" style="25" width="11.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="6"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="46"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="3"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2834,12 +2816,12 @@
       <c r="AMI1" s="1"/>
       <c r="AMJ1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="46"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3862,14 +3844,14 @@
       <c r="AMI2" s="1"/>
       <c r="AMJ2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -4892,14 +4874,14 @@
       <c r="AMI3" s="1"/>
       <c r="AMJ3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5922,14 +5904,14 @@
       <c r="AMI4" s="1"/>
       <c r="AMJ4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -6952,14 +6934,14 @@
       <c r="AMI5" s="1"/>
       <c r="AMJ5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="17"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -7980,14 +7962,14 @@
       <c r="AMI6" s="1"/>
       <c r="AMJ6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="48"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="17"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -9008,14 +8990,14 @@
       <c r="AMI7" s="1"/>
       <c r="AMJ7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="17"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -10036,14 +10018,14 @@
       <c r="AMI8" s="1"/>
       <c r="AMJ8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="48"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="17"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -11064,14 +11046,14 @@
       <c r="AMI9" s="1"/>
       <c r="AMJ9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="48"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="17"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -12092,10 +12074,10 @@
       <c r="AMI10" s="1"/>
       <c r="AMJ10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="49"/>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="43"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="46"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -13118,10 +13100,10 @@
       <c r="AMI11" s="1"/>
       <c r="AMJ11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="50"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="44"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="46"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -14144,10 +14126,10 @@
       <c r="AMI12" s="1"/>
       <c r="AMJ12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="6"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="46"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -15170,10 +15152,10 @@
       <c r="AMI13" s="1"/>
       <c r="AMJ13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="6"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="46"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -16196,10 +16178,10 @@
       <c r="AMI14" s="1"/>
       <c r="AMJ14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="46"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -17222,10 +17204,10 @@
       <c r="AMI15" s="1"/>
       <c r="AMJ15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="6"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="46"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -18248,7 +18230,7 @@
       <c r="AMI16" s="1"/>
       <c r="AMJ16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="6"/>
       <c r="B17" s="9" t="s">
         <v>12</v>
@@ -18257,10 +18239,10 @@
       <c r="D17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="45" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="1"/>
@@ -19280,14 +19262,14 @@
       <c r="AMG17" s="1"/>
       <c r="AMH17" s="1"/>
       <c r="AMI17" s="1"/>
-      <c r="AMJ17" s="46"/>
+      <c r="AMJ17" s="42"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="52"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
         <v>31</v>
@@ -20305,21 +20287,21 @@
       <c r="ALZ18" s="1"/>
       <c r="AMA18" s="1"/>
       <c r="AMB18" s="1"/>
-      <c r="AMC18" s="46"/>
-      <c r="AMD18" s="46"/>
-      <c r="AME18" s="46"/>
-      <c r="AMF18" s="46"/>
-      <c r="AMG18" s="46"/>
-      <c r="AMH18" s="46"/>
-      <c r="AMI18" s="46"/>
-      <c r="AMJ18" s="46"/>
+      <c r="AMC18" s="42"/>
+      <c r="AMD18" s="42"/>
+      <c r="AME18" s="42"/>
+      <c r="AMF18" s="42"/>
+      <c r="AMG18" s="42"/>
+      <c r="AMH18" s="42"/>
+      <c r="AMI18" s="42"/>
+      <c r="AMJ18" s="42"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="46"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
         <v>21</v>
@@ -21346,19 +21328,19 @@
       <c r="AMI19" s="1"/>
       <c r="AMJ19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="53"/>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="47"/>
       <c r="B20" s="2">
         <v>0</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="3">
-        <v>25569.04218417824</v>
+        <v>44927</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="48">
         <v>25</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="49">
         <v>10</v>
       </c>
       <c r="G20" s="1"/>
@@ -22371,24 +22353,24 @@
       <c r="ALZ20" s="1"/>
       <c r="AMA20" s="1"/>
       <c r="AMB20" s="1"/>
-      <c r="AMC20" s="46"/>
-      <c r="AMD20" s="46"/>
-      <c r="AME20" s="46"/>
-      <c r="AMF20" s="46"/>
-      <c r="AMG20" s="46"/>
-      <c r="AMH20" s="46"/>
-      <c r="AMI20" s="46"/>
-      <c r="AMJ20" s="46"/>
+      <c r="AMC20" s="42"/>
+      <c r="AMD20" s="42"/>
+      <c r="AME20" s="42"/>
+      <c r="AMF20" s="42"/>
+      <c r="AMG20" s="42"/>
+      <c r="AMH20" s="42"/>
+      <c r="AMI20" s="42"/>
+      <c r="AMJ20" s="42"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="6"/>
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -23408,15 +23390,15 @@
       <c r="AMI21" s="1"/>
       <c r="AMJ21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="6"/>
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -24436,15 +24418,15 @@
       <c r="AMI22" s="1"/>
       <c r="AMJ22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="6"/>
       <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="46"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -25464,15 +25446,15 @@
       <c r="AMI23" s="1"/>
       <c r="AMJ23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="6"/>
       <c r="B24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="46"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -26492,15 +26474,15 @@
       <c r="AMI24" s="1"/>
       <c r="AMJ24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="6"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
-      <c r="C25" s="46"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -27520,15 +27502,15 @@
       <c r="AMI25" s="1"/>
       <c r="AMJ25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="6"/>
       <c r="B26" s="2">
         <v>6</v>
       </c>
-      <c r="C26" s="46"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -28548,15 +28530,15 @@
       <c r="AMI26" s="1"/>
       <c r="AMJ26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="6"/>
       <c r="B27" s="2">
         <v>7</v>
       </c>
-      <c r="C27" s="46"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -29576,15 +29558,15 @@
       <c r="AMI27" s="1"/>
       <c r="AMJ27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="6"/>
       <c r="B28" s="2">
         <v>8</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -30604,19 +30586,19 @@
       <c r="AMI28" s="1"/>
       <c r="AMJ28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="6"/>
       <c r="B29" s="2">
         <v>9</v>
       </c>
-      <c r="C29" s="46"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="3">
-        <v>25569.042226458332</v>
+        <v>48214</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="49">
         <v>40</v>
       </c>
-      <c r="F29" s="55">
+      <c r="F29" s="49">
         <v>15</v>
       </c>
       <c r="G29" s="1"/>
@@ -31638,15 +31620,15 @@
       <c r="AMI29" s="1"/>
       <c r="AMJ29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="6"/>
       <c r="B30" s="2">
         <v>10</v>
       </c>
-      <c r="C30" s="46"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -32666,12 +32648,12 @@
       <c r="AMI30" s="1"/>
       <c r="AMJ30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="6"/>
       <c r="B31" s="2">
         <v>11</v>
       </c>
-      <c r="C31" s="46"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -33694,12 +33676,12 @@
       <c r="AMI31" s="1"/>
       <c r="AMJ31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="6"/>
       <c r="B32" s="2">
         <v>12</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="3"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -34722,12 +34704,12 @@
       <c r="AMI32" s="1"/>
       <c r="AMJ32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="6"/>
       <c r="B33" s="2">
         <v>13</v>
       </c>
-      <c r="C33" s="46"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -35750,12 +35732,12 @@
       <c r="AMI33" s="1"/>
       <c r="AMJ33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="6"/>
       <c r="B34" s="2">
         <v>14</v>
       </c>
-      <c r="C34" s="46"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -36778,12 +36760,12 @@
       <c r="AMI34" s="1"/>
       <c r="AMJ34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="6"/>
       <c r="B35" s="2">
         <v>15</v>
       </c>
-      <c r="C35" s="46"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -37806,12 +37788,12 @@
       <c r="AMI35" s="1"/>
       <c r="AMJ35" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="6"/>
       <c r="B36" s="2">
         <v>16</v>
       </c>
-      <c r="C36" s="46"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="3"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -38839,7 +38821,7 @@
       <c r="B37" s="2">
         <v>17</v>
       </c>
-      <c r="C37" s="46"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="3"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -39867,7 +39849,7 @@
       <c r="B38" s="2">
         <v>18</v>
       </c>
-      <c r="C38" s="46"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="3"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -40895,7 +40877,7 @@
       <c r="B39" s="2">
         <v>19</v>
       </c>
-      <c r="C39" s="46"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="3"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -41923,7 +41905,7 @@
       <c r="B40" s="2">
         <v>20</v>
       </c>
-      <c r="C40" s="46"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -42951,7 +42933,7 @@
       <c r="B41" s="2">
         <v>21</v>
       </c>
-      <c r="C41" s="46"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="3"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -43991,24 +43973,24 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="25" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="25" width="8.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="27" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="43" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="44" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="45" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="40" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="39" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="41" width="12.290714285714287" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="25" width="10.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="25" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="30"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
@@ -44016,12 +43998,12 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -44033,10 +44015,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -44048,10 +44030,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -44063,10 +44045,10 @@
         <v>22</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="31"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -44074,12 +44056,12 @@
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -44087,12 +44069,12 @@
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
@@ -44100,12 +44082,12 @@
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -44113,12 +44095,12 @@
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -44126,78 +44108,78 @@
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="30"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="30"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="30"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="30"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="30"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -44210,13 +44192,13 @@
       <c r="D17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="33" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="34" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="10" t="s">
@@ -44228,25 +44210,25 @@
       <c r="A18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
@@ -44256,16 +44238,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="38">
-        <v>25569.042163391205</v>
+      <c r="D20" s="35">
+        <v>44927</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="36">
         <v>1.14</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="37">
         <v>543</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="38">
         <f>F20/E20</f>
       </c>
       <c r="H20" s="20"/>
@@ -44277,16 +44259,14 @@
         <f>1+B20</f>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="38">
-        <v>25569.042165520834</v>
-      </c>
-      <c r="E21" s="39">
+      <c r="D21" s="35"/>
+      <c r="E21" s="36">
         <v>1.2</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="37">
         <v>582</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="38">
         <f>F21/E21</f>
       </c>
       <c r="H21" s="1"/>
@@ -44298,16 +44278,14 @@
         <f>1+B21</f>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="38">
-        <v>25569.042167615742</v>
-      </c>
-      <c r="E22" s="39">
+      <c r="D22" s="35"/>
+      <c r="E22" s="36">
         <v>1.16</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="37">
         <v>561</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="38">
         <f>F22/E22</f>
       </c>
       <c r="H22" s="1"/>
@@ -44319,16 +44297,14 @@
         <f>1+B22</f>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="38">
-        <v>25569.04216974537</v>
-      </c>
-      <c r="E23" s="39">
+      <c r="D23" s="35"/>
+      <c r="E23" s="36">
         <v>1.14</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="37">
         <v>553</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="38">
         <f>F23/E23</f>
       </c>
       <c r="H23" s="1"/>
@@ -44340,16 +44316,14 @@
         <f>1+B23</f>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="38">
-        <v>25569.04217184028</v>
-      </c>
-      <c r="E24" s="39">
+      <c r="D24" s="35"/>
+      <c r="E24" s="36">
         <v>1.12</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="37">
         <v>530</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="38">
         <f>F24/E24</f>
       </c>
       <c r="H24" s="1"/>
@@ -44361,16 +44335,14 @@
         <f>1+B24</f>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="38">
-        <v>25569.04217396991</v>
-      </c>
-      <c r="E25" s="39">
+      <c r="D25" s="35"/>
+      <c r="E25" s="36">
         <v>1.12</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="37">
         <v>527</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="38">
         <f>F25/E25</f>
       </c>
       <c r="H25" s="1"/>
@@ -44382,16 +44354,14 @@
         <f>1+B25</f>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="38">
-        <v>25569.04217607639</v>
-      </c>
-      <c r="E26" s="39">
+      <c r="D26" s="35"/>
+      <c r="E26" s="36">
         <v>1.12</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="37">
         <v>554</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="38">
         <f>F26/E26</f>
       </c>
       <c r="H26" s="1"/>
@@ -44403,16 +44373,14 @@
         <f>1+B26</f>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="38">
-        <v>25569.04217820602</v>
-      </c>
-      <c r="E27" s="39">
+      <c r="D27" s="35"/>
+      <c r="E27" s="36">
         <v>1.22</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="37">
         <v>630</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="38">
         <f>F27/E27</f>
       </c>
       <c r="H27" s="1"/>
@@ -44424,16 +44392,14 @@
         <f>1+B27</f>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="38">
-        <v>25569.042180300927</v>
-      </c>
-      <c r="E28" s="39">
+      <c r="D28" s="35"/>
+      <c r="E28" s="36">
         <v>1.18</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="37">
         <v>585</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="38">
         <f>F28/E28</f>
       </c>
       <c r="H28" s="1"/>
@@ -44445,16 +44411,16 @@
         <f>1+B28</f>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="38">
-        <v>25569.042182430556</v>
+      <c r="D29" s="35">
+        <v>48214</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="36">
         <v>1.13</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="37">
         <v>540</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="38">
         <f>F29/E29</f>
       </c>
       <c r="H29" s="20"/>
@@ -44466,16 +44432,14 @@
         <f>1+B29</f>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="38">
-        <v>25569.042184525464</v>
-      </c>
-      <c r="E30" s="39">
+      <c r="D30" s="35"/>
+      <c r="E30" s="36">
         <v>1.04</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="37">
         <v>425</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="38">
         <f>F30/E30</f>
       </c>
       <c r="H30" s="1"/>
@@ -44488,9 +44452,9 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
@@ -44501,9 +44465,9 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
@@ -44514,9 +44478,9 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
@@ -44527,9 +44491,9 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="34"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="31"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
@@ -44540,9 +44504,9 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="31"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
@@ -44553,9 +44517,9 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="34"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="31"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
@@ -44566,9 +44530,9 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="34"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="31"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
@@ -44579,9 +44543,9 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="34"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="31"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
@@ -44592,9 +44556,9 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="34"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
@@ -44605,9 +44569,9 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="34"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="31"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
@@ -44618,9 +44582,9 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="34"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="31"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
@@ -44651,7 +44615,7 @@
     <col min="9" max="9" style="25" width="18.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -44785,7 +44749,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -44796,7 +44760,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -44807,7 +44771,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -44818,7 +44782,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
@@ -44829,7 +44793,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
@@ -44840,7 +44804,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
@@ -44910,14 +44874,14 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="2">
         <v>0</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="3">
-        <v>25569.042163391205</v>
+        <v>44927</v>
       </c>
       <c r="E20" s="18">
         <v>0.06</v>
@@ -44931,60 +44895,52 @@
       <c r="H20" s="20"/>
       <c r="I20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="2">
         <f>1+B20</f>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="3">
-        <v>25569.042165520834</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="21"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="2">
         <f>1+B21</f>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="3">
-        <v>25569.042167615742</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="21"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="2">
         <f>1+B22</f>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="3">
-        <v>25569.04216974537</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="21"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="2">
         <f>1+B23</f>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="3">
-        <v>25569.04217184028</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="21"/>
@@ -44997,9 +44953,7 @@
         <f>1+B24</f>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="3">
-        <v>25569.04217396991</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="18">
         <v>0.08</v>
       </c>
@@ -45012,59 +44966,53 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
       <c r="B26" s="2">
         <f>1+B25</f>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="3">
-        <v>25569.04217607639</v>
-      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
         <f>1+B26</f>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="3">
-        <v>25569.04217820602</v>
-      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="24"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
         <f>1+B27</f>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="3">
-        <v>25569.042180300927</v>
-      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
         <f>1+B28</f>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="3">
-        <v>25569.042182430556</v>
+        <v>48214</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
@@ -45072,22 +45020,20 @@
       <c r="H29" s="20"/>
       <c r="I29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
         <f>1+B29</f>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="3">
-        <v>25569.042184525464</v>
-      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="24"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
         <f>1+B30</f>
@@ -45100,7 +45046,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1"/>
       <c r="B32" s="2">
         <f>1+B31</f>
@@ -45113,7 +45059,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1"/>
       <c r="B33" s="2">
         <f>1+B32</f>
@@ -45126,7 +45072,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1"/>
       <c r="B34" s="2">
         <f>1+B33</f>

--- a/dataset/models/input/Common Environment.xlsx
+++ b/dataset/models/input/Common Environment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Summary"/>
@@ -97,7 +97,7 @@
     <t>USD2AMD</t>
   </si>
   <si>
-    <t>EUR2CNY</t>
+    <t/>
   </si>
   <si>
     <t>2022-06-23a</t>
@@ -255,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -357,6 +357,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -721,19 +724,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="50" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="52" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="50" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="51" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="51" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="51">
+      <c r="B1" s="52">
         <v>0.5</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -741,10 +744,10 @@
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>0.5</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -764,9 +767,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="50" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="51" width="17.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="26" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="50" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="51" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="27" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="26" width="21.862142857142857" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="26" width="19.862142857142857" customWidth="1" bestFit="1"/>
@@ -1793,7 +1796,7 @@
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="6"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="42"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="3"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2821,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3851,7 +3854,7 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -4881,7 +4884,7 @@
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5911,7 +5914,7 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -6939,7 +6942,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="42"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="3"/>
       <c r="E6" s="30"/>
       <c r="F6" s="17"/>
@@ -7967,7 +7970,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="42"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="3"/>
       <c r="E7" s="30"/>
       <c r="F7" s="17"/>
@@ -8995,7 +8998,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="42"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="3"/>
       <c r="E8" s="30"/>
       <c r="F8" s="17"/>
@@ -10023,7 +10026,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="3"/>
       <c r="E9" s="30"/>
       <c r="F9" s="17"/>
@@ -11051,7 +11054,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="42"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="3"/>
       <c r="E10" s="30"/>
       <c r="F10" s="17"/>
@@ -12075,9 +12078,9 @@
       <c r="AMJ10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="42"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -13101,9 +13104,9 @@
       <c r="AMJ11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="42"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -14129,7 +14132,7 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="6"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="42"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -15155,7 +15158,7 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="6"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -16181,7 +16184,7 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="42"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -17207,7 +17210,7 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="6"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -18239,10 +18242,10 @@
       <c r="D17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="46" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="1"/>
@@ -19262,14 +19265,14 @@
       <c r="AMG17" s="1"/>
       <c r="AMH17" s="1"/>
       <c r="AMI17" s="1"/>
-      <c r="AMJ17" s="42"/>
+      <c r="AMJ17" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="46"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
         <v>31</v>
@@ -20287,21 +20290,21 @@
       <c r="ALZ18" s="1"/>
       <c r="AMA18" s="1"/>
       <c r="AMB18" s="1"/>
-      <c r="AMC18" s="42"/>
-      <c r="AMD18" s="42"/>
-      <c r="AME18" s="42"/>
-      <c r="AMF18" s="42"/>
-      <c r="AMG18" s="42"/>
-      <c r="AMH18" s="42"/>
-      <c r="AMI18" s="42"/>
-      <c r="AMJ18" s="42"/>
+      <c r="AMC18" s="43"/>
+      <c r="AMD18" s="43"/>
+      <c r="AME18" s="43"/>
+      <c r="AMF18" s="43"/>
+      <c r="AMG18" s="43"/>
+      <c r="AMH18" s="43"/>
+      <c r="AMI18" s="43"/>
+      <c r="AMJ18" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="42"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
         <v>21</v>
@@ -21329,18 +21332,18 @@
       <c r="AMJ19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="47"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="2">
         <v>0</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="3">
         <v>44927</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="49">
         <v>25</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="50">
         <v>10</v>
       </c>
       <c r="G20" s="1"/>
@@ -22353,24 +22356,24 @@
       <c r="ALZ20" s="1"/>
       <c r="AMA20" s="1"/>
       <c r="AMB20" s="1"/>
-      <c r="AMC20" s="42"/>
-      <c r="AMD20" s="42"/>
-      <c r="AME20" s="42"/>
-      <c r="AMF20" s="42"/>
-      <c r="AMG20" s="42"/>
-      <c r="AMH20" s="42"/>
-      <c r="AMI20" s="42"/>
-      <c r="AMJ20" s="42"/>
+      <c r="AMC20" s="43"/>
+      <c r="AMD20" s="43"/>
+      <c r="AME20" s="43"/>
+      <c r="AMF20" s="43"/>
+      <c r="AMG20" s="43"/>
+      <c r="AMH20" s="43"/>
+      <c r="AMI20" s="43"/>
+      <c r="AMJ20" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="6"/>
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -23395,10 +23398,10 @@
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -24423,10 +24426,10 @@
       <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="42"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -25451,10 +25454,10 @@
       <c r="B24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -26479,10 +26482,10 @@
       <c r="B25" s="2">
         <v>5</v>
       </c>
-      <c r="C25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -27507,10 +27510,10 @@
       <c r="B26" s="2">
         <v>6</v>
       </c>
-      <c r="C26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -28535,10 +28538,10 @@
       <c r="B27" s="2">
         <v>7</v>
       </c>
-      <c r="C27" s="42"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -29563,10 +29566,10 @@
       <c r="B28" s="2">
         <v>8</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -30591,14 +30594,14 @@
       <c r="B29" s="2">
         <v>9</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="3">
         <v>48214</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="50">
         <v>40</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="50">
         <v>15</v>
       </c>
       <c r="G29" s="1"/>
@@ -31625,10 +31628,10 @@
       <c r="B30" s="2">
         <v>10</v>
       </c>
-      <c r="C30" s="42"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -32653,7 +32656,7 @@
       <c r="B31" s="2">
         <v>11</v>
       </c>
-      <c r="C31" s="42"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -33681,7 +33684,7 @@
       <c r="B32" s="2">
         <v>12</v>
       </c>
-      <c r="C32" s="42"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="3"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -34709,7 +34712,7 @@
       <c r="B33" s="2">
         <v>13</v>
       </c>
-      <c r="C33" s="42"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -35737,7 +35740,7 @@
       <c r="B34" s="2">
         <v>14</v>
       </c>
-      <c r="C34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -36765,7 +36768,7 @@
       <c r="B35" s="2">
         <v>15</v>
       </c>
-      <c r="C35" s="42"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -37793,7 +37796,7 @@
       <c r="B36" s="2">
         <v>16</v>
       </c>
-      <c r="C36" s="42"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="3"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -38821,7 +38824,7 @@
       <c r="B37" s="2">
         <v>17</v>
       </c>
-      <c r="C37" s="42"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="3"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -39849,7 +39852,7 @@
       <c r="B38" s="2">
         <v>18</v>
       </c>
-      <c r="C38" s="42"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="3"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -40877,7 +40880,7 @@
       <c r="B39" s="2">
         <v>19</v>
       </c>
-      <c r="C39" s="42"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="3"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -41905,7 +41908,7 @@
       <c r="B40" s="2">
         <v>20</v>
       </c>
-      <c r="C40" s="42"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -42933,7 +42936,7 @@
       <c r="B41" s="2">
         <v>21</v>
       </c>
-      <c r="C41" s="42"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="3"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -43968,17 +43971,17 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="25" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="25" width="8.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="27" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="40" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="39" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="41" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="41" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="40" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="42" width="12.290714285714287" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="25" width="10.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="25" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
@@ -44201,7 +44204,7 @@
       <c r="G17" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I17" s="1"/>
@@ -44238,16 +44241,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="35">
+      <c r="D20" s="36">
         <v>44927</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="37">
         <v>1.14</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="38">
         <v>543</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="39">
         <f>F20/E20</f>
       </c>
       <c r="H20" s="20"/>
@@ -44259,14 +44262,14 @@
         <f>1+B20</f>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36">
+      <c r="D21" s="36"/>
+      <c r="E21" s="37">
         <v>1.2</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="38">
         <v>582</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="39">
         <f>F21/E21</f>
       </c>
       <c r="H21" s="1"/>
@@ -44278,14 +44281,14 @@
         <f>1+B21</f>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36">
+      <c r="D22" s="36"/>
+      <c r="E22" s="37">
         <v>1.16</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="38">
         <v>561</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="39">
         <f>F22/E22</f>
       </c>
       <c r="H22" s="1"/>
@@ -44297,14 +44300,14 @@
         <f>1+B22</f>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36">
+      <c r="D23" s="36"/>
+      <c r="E23" s="37">
         <v>1.14</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="38">
         <v>553</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="39">
         <f>F23/E23</f>
       </c>
       <c r="H23" s="1"/>
@@ -44316,14 +44319,14 @@
         <f>1+B23</f>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36">
+      <c r="D24" s="36"/>
+      <c r="E24" s="37">
         <v>1.12</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="38">
         <v>530</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="39">
         <f>F24/E24</f>
       </c>
       <c r="H24" s="1"/>
@@ -44335,14 +44338,14 @@
         <f>1+B24</f>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36">
+      <c r="D25" s="36"/>
+      <c r="E25" s="37">
         <v>1.12</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="38">
         <v>527</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="39">
         <f>F25/E25</f>
       </c>
       <c r="H25" s="1"/>
@@ -44354,14 +44357,14 @@
         <f>1+B25</f>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36">
+      <c r="D26" s="36"/>
+      <c r="E26" s="37">
         <v>1.12</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="38">
         <v>554</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="39">
         <f>F26/E26</f>
       </c>
       <c r="H26" s="1"/>
@@ -44373,14 +44376,14 @@
         <f>1+B26</f>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36">
+      <c r="D27" s="36"/>
+      <c r="E27" s="37">
         <v>1.22</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="38">
         <v>630</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="39">
         <f>F27/E27</f>
       </c>
       <c r="H27" s="1"/>
@@ -44392,14 +44395,14 @@
         <f>1+B27</f>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36">
+      <c r="D28" s="36"/>
+      <c r="E28" s="37">
         <v>1.18</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="38">
         <v>585</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="39">
         <f>F28/E28</f>
       </c>
       <c r="H28" s="1"/>
@@ -44411,16 +44414,16 @@
         <f>1+B28</f>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="35">
+      <c r="D29" s="36">
         <v>48214</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="37">
         <v>1.13</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="38">
         <v>540</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="39">
         <f>F29/E29</f>
       </c>
       <c r="H29" s="20"/>
@@ -44432,14 +44435,14 @@
         <f>1+B29</f>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36">
+      <c r="D30" s="36"/>
+      <c r="E30" s="37">
         <v>1.04</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="38">
         <v>425</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="39">
         <f>F30/E30</f>
       </c>
       <c r="H30" s="1"/>
@@ -44600,7 +44603,7 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
